--- a/biology/Histoire de la zoologie et de la botanique/William_Campbell_Dickison/William_Campbell_Dickison.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Campbell_Dickison/William_Campbell_Dickison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Campbell Dickison est un botaniste américain, né le 12 mars 1941 à Jamaica dans l'État de New York, et mort le 22 novembre 1999 d'un cancer.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il grandit dans l’Illinois et obtient son Bachelor of Sciences en pédagogie de la Western Illinois University de Macomb en 1972, son Master of Arts en botanique à l’université de l’Indiana en 1964, enfin, son Ph. D. dans la même université en 1966 sous la direction de James Edward Canright (1920-). Il se consacre alors à la morphologie et l’anatomie des plantes à fleurs notamment celles de la famille des Dilleniaceae.
 Après avoir travaillé trois ans au Virginia Polytechnic Institute, il rejoint le département de botanique de l’université de Caroline du Nord à Chapel Hill. Dickison est membre de diverses sociétés savantes comme la Botanical Society of America ou l’International Association of Plant Taxonomists (en).
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice nécrologique de Patricia G. Gensel parue dans Plant Science Bulletin, 46 (1) - Spring 2000 (en anglais)</t>
         </is>
